--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CA905B-BBA1-408D-B2E8-EF619CF4CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B6D041-5771-42D5-A730-53E6E2E7EBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42900" yWindow="5265" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{85DBA08B-C567-4CED-9E76-84B9F3389DDE}"/>
+    <workbookView xWindow="-46590" yWindow="4980" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{85DBA08B-C567-4CED-9E76-84B9F3389DDE}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BP_File_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Img_File_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,11 +98,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PracticeWidget_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PracticeWidget_02</t>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Level/BaseLayerLevel</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>TableData</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>UI/Widget</t>
+  </si>
+  <si>
+    <t>UI/Widget/LoadingWidget</t>
+  </si>
+  <si>
+    <t>UI/Widget/Practice</t>
+  </si>
+  <si>
+    <t>UI/Widget/Logo</t>
+  </si>
+  <si>
+    <t>UI/Widget/Account</t>
+  </si>
+  <si>
+    <t>UI/Widget/Town/Lobby</t>
+  </si>
+  <si>
+    <t>UI/Widget/Town</t>
+  </si>
+  <si>
+    <t>UI/Widget/Market</t>
+  </si>
+  <si>
+    <t>UI/Image/Icon</t>
+  </si>
+  <si>
+    <t>3D/StaticMesh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +537,7 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -515,7 +545,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -523,7 +553,7 @@
         <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +561,7 @@
         <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +569,7 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +577,7 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +585,7 @@
         <v>1001</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -567,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6E866-9A48-4AD1-83DB-04C0779DF277}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C4"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,48 +609,140 @@
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>402</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>402</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>403</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>404</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>406</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>407</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>408</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -653,10 +775,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -670,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B4F7AD-014D-4524-8754-50A6848DDE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A0960-2F78-4141-BBD0-0D57BDF68F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1650" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Level/BaseLayerLevel</t>
   </si>
   <si>
-    <t>UI/Widget/Town/Lobby</t>
-  </si>
-  <si>
     <t>UI/Widget/LoadingWidget</t>
   </si>
   <si>
@@ -99,8 +96,33 @@
     <t>UI</t>
   </si>
   <si>
+    <t>UI/Widget/Lobby</t>
+  </si>
+  <si>
+    <t>UI/Widget/Market/Storage</t>
+  </si>
+  <si>
+    <t>UI/Widget/Staff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Widget/Staff/Modal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Image/Icon/Dummy</t>
+  </si>
+  <si>
+    <t>UI/Image/Storage</t>
+  </si>
+  <si>
+    <t>UI/Image/Item</t>
+  </si>
+  <si>
+    <t>UI/Image/Portrait</t>
+  </si>
+  <si>
     <t>Environment/Prop/Furniture</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -114,17 +136,17 @@
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <sz val="8"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,11 +171,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +498,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -530,7 +549,7 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -550,7 +569,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -559,10 +578,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A3" sqref="A3:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -625,7 +644,7 @@
         <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -641,7 +660,7 @@
         <v>403</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -673,7 +692,7 @@
         <v>407</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,30 +721,86 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1001</v>
+        <v>411</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4001</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>412</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>413</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1003</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1004</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1005</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>5001</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -749,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -776,7 +851,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>

--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A0960-2F78-4141-BBD0-0D57BDF68F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E2D3A-BC23-4CF8-ADBD-C4DD869CFBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1650" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23070" yWindow="4260" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -75,9 +75,6 @@
     <t>int32</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -102,27 +99,299 @@
     <t>UI/Widget/Market/Storage</t>
   </si>
   <si>
+    <t>UI/Image/Icon/Dummy</t>
+  </si>
+  <si>
+    <t>UI/Image/Storage</t>
+  </si>
+  <si>
+    <t>UI/Image/Item</t>
+  </si>
+  <si>
+    <t>UI/Image/Portrait</t>
+  </si>
+  <si>
+    <t>Environment/Prop/Furniture</t>
+  </si>
+  <si>
+    <t>RootWidget</t>
+  </si>
+  <si>
+    <t>PersistentWidget</t>
+  </si>
+  <si>
+    <t>PracticeWidget_01</t>
+  </si>
+  <si>
+    <t>PracticeWidget_02</t>
+  </si>
+  <si>
+    <t>LoadingWidget</t>
+  </si>
+  <si>
+    <t>LogoWidget</t>
+  </si>
+  <si>
+    <t>AccountWidget</t>
+  </si>
+  <si>
+    <t>LobbyWidget</t>
+  </si>
+  <si>
+    <t>TownWidget</t>
+  </si>
+  <si>
+    <t>MarketWidget</t>
+  </si>
+  <si>
+    <t>InMarketWidget</t>
+  </si>
+  <si>
+    <t>StorageStatusWidget</t>
+  </si>
+  <si>
+    <t>StaffManagementWidget</t>
+  </si>
+  <si>
+    <t>StaffDetailWidget</t>
+  </si>
+  <si>
+    <t>HireStaffWidget</t>
+  </si>
+  <si>
+    <t>CustomerManagementWidget</t>
+  </si>
+  <si>
+    <t>FinancialManagementWidget</t>
+  </si>
+  <si>
+    <t>ScheduleModalWidget</t>
+  </si>
+  <si>
+    <t>ScheduleDetailWidget</t>
+  </si>
+  <si>
+    <t>BP_Counter_6x2_A</t>
+  </si>
+  <si>
+    <t>BP_Counter_6x2_B</t>
+  </si>
+  <si>
+    <t>BP_Discount_2x2_A</t>
+  </si>
+  <si>
+    <t>BP_Fridge_2x2_A</t>
+  </si>
+  <si>
+    <t>BP_Fridge_2x2_B</t>
+  </si>
+  <si>
+    <t>BP_Freezer_2x2_A</t>
+  </si>
+  <si>
+    <t>BP_RoomTemperature_2x2_A</t>
+  </si>
+  <si>
+    <t>BP_VeggieStand_2x2_A</t>
+  </si>
+  <si>
+    <t>BP_VeggieStand_2x2_B</t>
+  </si>
+  <si>
+    <t>BP_VeggieStand_2x4_AB</t>
+  </si>
+  <si>
+    <t>SM_Freeze_dumpling</t>
+  </si>
+  <si>
+    <t>SM_Freeze_Hamburger</t>
+  </si>
+  <si>
+    <t>SM_Freeze_IceCream</t>
+  </si>
+  <si>
+    <t>SM_Fresh_Apple</t>
+  </si>
+  <si>
+    <t>SM_Fresh_Fish</t>
+  </si>
+  <si>
+    <t>SM_Fresh_Orange</t>
+  </si>
+  <si>
+    <t>SM_Refrgi_MilkB</t>
+  </si>
+  <si>
+    <t>SM_Refrig_JuiceA</t>
+  </si>
+  <si>
+    <t>SM_Refrig_MilkA</t>
+  </si>
+  <si>
+    <t>SM_Refrig_SnackA</t>
+  </si>
+  <si>
+    <t>SM_Refrig_SnackB</t>
+  </si>
+  <si>
+    <t>SM_Refrig_SnackC</t>
+  </si>
+  <si>
+    <t>SM_WH_BOX</t>
+  </si>
+  <si>
+    <t>SM_WH_RACK</t>
+  </si>
+  <si>
+    <t>BP_File_Name</t>
+  </si>
+  <si>
+    <t>FString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UI/Widget/Staff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI/Widget/Staff/Modal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Image/Icon/Dummy</t>
-  </si>
-  <si>
-    <t>UI/Image/Storage</t>
-  </si>
-  <si>
-    <t>UI/Image/Item</t>
-  </si>
-  <si>
-    <t>UI/Image/Portrait</t>
-  </si>
-  <si>
-    <t>Environment/Prop/Furniture</t>
+  </si>
+  <si>
+    <t>UI/Widget/Customer/Modal</t>
+  </si>
+  <si>
+    <t>UI/Widget/Finance/Modal</t>
+  </si>
+  <si>
+    <t>UI/Widget/Schedule</t>
+  </si>
+  <si>
+    <t>UI/Widget/Schedule/Modal</t>
+  </si>
+  <si>
+    <t>MartIcon</t>
+  </si>
+  <si>
+    <t>BoardIcon</t>
+  </si>
+  <si>
+    <t>SettingIcon</t>
+  </si>
+  <si>
+    <t>MenuIcon</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>Thum_Fresh_Orange</t>
+  </si>
+  <si>
+    <t>Thum_Fresh_Apple</t>
+  </si>
+  <si>
+    <t>Thum_Fresh_Fish</t>
+  </si>
+  <si>
+    <t>Thum_Refrig_JuiceA</t>
+  </si>
+  <si>
+    <t>Thum_Refrig_MilkA</t>
+  </si>
+  <si>
+    <t>Thum_Refrig_MilkB</t>
+  </si>
+  <si>
+    <t>Thum_Freeze_Dumpling</t>
+  </si>
+  <si>
+    <t>Thum_Freeze_Hamburger</t>
+  </si>
+  <si>
+    <t>Thum_Refrig_SnackA</t>
+  </si>
+  <si>
+    <t>Thum_Refrig_SnackB</t>
+  </si>
+  <si>
+    <t>Thum_Refrig_SnackC</t>
+  </si>
+  <si>
+    <t>Thum_Freeze_IceCream</t>
+  </si>
+  <si>
+    <t>Thum_FUR_COT_A</t>
+  </si>
+  <si>
+    <t>Thum_FUR_COT_B</t>
+  </si>
+  <si>
+    <t>SM_FUR_DIS_A</t>
+  </si>
+  <si>
+    <t>Thum_FUR_FG_A</t>
+  </si>
+  <si>
+    <t>Thum_FUR_FG_B</t>
+  </si>
+  <si>
+    <t>Thum_FUR_FZ_A</t>
+  </si>
+  <si>
+    <t>Thum_FUR_RT_A</t>
+  </si>
+  <si>
+    <t>Thum_FUR_VS_A</t>
+  </si>
+  <si>
+    <t>Thum_FUR_VS_B</t>
+  </si>
+  <si>
+    <t>Thum_WH_RACK</t>
+  </si>
+  <si>
+    <t>DuckPortrait_White</t>
+  </si>
+  <si>
+    <t>DuckPortrait_Red</t>
+  </si>
+  <si>
+    <t>DuckPortrait_Yellow</t>
+  </si>
+  <si>
+    <t>DuckPortrait_Green</t>
+  </si>
+  <si>
+    <t>DuckPortrait_Blue</t>
+  </si>
+  <si>
+    <t>DuckPortrait_Purple</t>
   </si>
 </sst>
 </file>
@@ -142,11 +411,11 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,8 +440,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,10 +757,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -509,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,47 +797,215 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>402</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>403</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>404</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>406</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>407</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>408</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>412</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>413</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>414</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>415</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>416</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>417</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -578,10 +1018,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,228 +1031,515 @@
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>402</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>404</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>403</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>406</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>407</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>408</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>409</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>410</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>411</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>413</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B16">
+        <v>412</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>413</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>414</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>415</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>301</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>401</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>402</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>403</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>404</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>405</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>406</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>407</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>408</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>409</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>410</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>411</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>412</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>413</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1001</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>417</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1002</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>416</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1003</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4001</v>
+      </c>
+      <c r="B22">
+        <v>4001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1004</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4002</v>
+      </c>
+      <c r="B23">
+        <v>4001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1005</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4003</v>
+      </c>
+      <c r="B24">
+        <v>4001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>4004</v>
+      </c>
+      <c r="B25">
         <v>4001</v>
       </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>4005</v>
+      </c>
+      <c r="B26">
+        <v>4001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4006</v>
+      </c>
+      <c r="B27">
+        <v>4001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4007</v>
+      </c>
+      <c r="B28">
+        <v>4001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4008</v>
+      </c>
+      <c r="B29">
+        <v>4001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4009</v>
+      </c>
+      <c r="B30">
+        <v>4001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4010</v>
+      </c>
+      <c r="B31">
+        <v>4001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>5001</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
+      <c r="B32">
+        <v>5001</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5002</v>
+      </c>
+      <c r="B33">
+        <v>5001</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5003</v>
+      </c>
+      <c r="B34">
+        <v>5001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5004</v>
+      </c>
+      <c r="B35">
+        <v>5001</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5005</v>
+      </c>
+      <c r="B36">
+        <v>5001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5006</v>
+      </c>
+      <c r="B37">
+        <v>5001</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5007</v>
+      </c>
+      <c r="B38">
+        <v>5001</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5008</v>
+      </c>
+      <c r="B39">
+        <v>5001</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5009</v>
+      </c>
+      <c r="B40">
+        <v>5001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5010</v>
+      </c>
+      <c r="B41">
+        <v>5001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5011</v>
+      </c>
+      <c r="B42">
+        <v>5001</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5012</v>
+      </c>
+      <c r="B43">
+        <v>5001</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6001</v>
+      </c>
+      <c r="B44">
+        <v>5001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>6002</v>
+      </c>
+      <c r="B45">
+        <v>5001</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,7 +1551,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -844,10 +1571,598 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1002</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>1004</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18">
+        <v>1004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>1004</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>1004</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>1004</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <v>1004</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>107</v>
+      </c>
+      <c r="B23">
+        <v>1004</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>108</v>
+      </c>
+      <c r="B24">
+        <v>1004</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>109</v>
+      </c>
+      <c r="B25">
+        <v>1004</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <v>1004</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>111</v>
+      </c>
+      <c r="B27">
+        <v>1004</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>112</v>
+      </c>
+      <c r="B28">
+        <v>1004</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1001</v>
+      </c>
+      <c r="B29">
+        <v>1003</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1002</v>
+      </c>
+      <c r="B30">
+        <v>1003</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1003</v>
+      </c>
+      <c r="B31">
+        <v>1003</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1004</v>
+      </c>
+      <c r="B32">
+        <v>1003</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1005</v>
+      </c>
+      <c r="B33">
+        <v>1003</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1006</v>
+      </c>
+      <c r="B34">
+        <v>1003</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1007</v>
+      </c>
+      <c r="B35">
+        <v>1003</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1008</v>
+      </c>
+      <c r="B36">
+        <v>1003</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1009</v>
+      </c>
+      <c r="B37">
+        <v>1003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1010</v>
+      </c>
+      <c r="B38">
+        <v>1003</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3001</v>
+      </c>
+      <c r="B39">
+        <v>1005</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3002</v>
+      </c>
+      <c r="B40">
+        <v>1005</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3003</v>
+      </c>
+      <c r="B41">
+        <v>1005</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3004</v>
+      </c>
+      <c r="B42">
+        <v>1005</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3005</v>
+      </c>
+      <c r="B43">
+        <v>1005</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3006</v>
+      </c>
+      <c r="B44">
+        <v>1005</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Content/TableData/BasePath_Directory.xlsx
+++ b/Content/TableData/BasePath_Directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E2D3A-BC23-4CF8-ADBD-C4DD869CFBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5517C1-6D0D-44C8-93D0-C3408854D639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23070" yWindow="4260" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35535" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasePath_Directory" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
   <si>
     <t>UI/Widget/InMarket</t>
   </si>
@@ -392,13 +392,20 @@
   </si>
   <si>
     <t>DuckPortrait_Purple</t>
+  </si>
+  <si>
+    <t>UI/Widget/SystemWidgets/Setting/Modal</t>
+  </si>
+  <si>
+    <t>SettingModalWidget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -416,6 +423,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -757,10 +771,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,57 +968,65 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1001</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
+        <v>420</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>4001</v>
+        <v>1005</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>4001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>5001</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1018,10 +1040,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1264,265 +1286,276 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>4001</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>4001</v>
+        <v>420</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B23">
         <v>4001</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B24">
         <v>4001</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B25">
         <v>4001</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B26">
         <v>4001</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B27">
         <v>4001</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B28">
         <v>4001</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B29">
         <v>4001</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="B30">
         <v>4001</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B31">
         <v>4001</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>5001</v>
+        <v>4010</v>
       </c>
       <c r="B32">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B33">
         <v>5001</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B34">
         <v>5001</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B35">
         <v>5001</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B36">
         <v>5001</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B37">
         <v>5001</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B38">
         <v>5001</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B39">
         <v>5001</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B40">
         <v>5001</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B41">
         <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B42">
         <v>5001</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="B43">
         <v>5001</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>6001</v>
+        <v>5012</v>
       </c>
       <c r="B44">
         <v>5001</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B45">
         <v>5001</v>
       </c>
       <c r="C45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>6002</v>
+      </c>
+      <c r="B46">
+        <v>5001</v>
+      </c>
+      <c r="C46" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1538,7 +1571,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
